--- a/bin/files/staff.xlsx
+++ b/bin/files/staff.xlsx
@@ -22,60 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
-    <t>Pera</t>
-  </si>
-  <si>
-    <t>Peric</t>
-  </si>
-  <si>
-    <t>pera.peric@hotmail.com</t>
-  </si>
-  <si>
-    <t>Mira</t>
-  </si>
-  <si>
-    <t>Miric</t>
-  </si>
-  <si>
-    <t>mira.miric@hotmail.com</t>
-  </si>
-  <si>
-    <t>Jova</t>
-  </si>
-  <si>
-    <t>Jovic</t>
-  </si>
-  <si>
-    <t>jova.jovic@hotmail.com</t>
-  </si>
-  <si>
-    <t>Ivanka</t>
-  </si>
-  <si>
-    <t>Ivankovic</t>
-  </si>
-  <si>
-    <t>iv.iv@hotmail.com</t>
-  </si>
-  <si>
-    <t>Vedrana</t>
-  </si>
-  <si>
-    <t>Zorica</t>
-  </si>
-  <si>
-    <t>Brusic</t>
-  </si>
-  <si>
-    <t>zoricabrusic@hotmail.com</t>
-  </si>
-  <si>
-    <t>Budan</t>
-  </si>
-  <si>
-    <t>vedrana.budan@hotmail.com</t>
-  </si>
-  <si>
     <t>Lucy</t>
   </si>
   <si>
@@ -83,6 +29,60 @@
   </si>
   <si>
     <t>lucy@the.sky</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Dhough</t>
+  </si>
+  <si>
+    <t>john.dhough@hotmail.com</t>
+  </si>
+  <si>
+    <t>Marcello</t>
+  </si>
+  <si>
+    <t>Gucci</t>
+  </si>
+  <si>
+    <t>marcello.gucci@hotmail.com</t>
+  </si>
+  <si>
+    <t>Ilion</t>
+  </si>
+  <si>
+    <t>Damaskus</t>
+  </si>
+  <si>
+    <t>ilion.damaskus@hotmail.com</t>
+  </si>
+  <si>
+    <t>Resident</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>resident.good@hotmail.com</t>
+  </si>
+  <si>
+    <t>Vintage</t>
+  </si>
+  <si>
+    <t>Rodent</t>
+  </si>
+  <si>
+    <t>vintage.rodent@hotmail.com</t>
+  </si>
+  <si>
+    <t>Leverage</t>
+  </si>
+  <si>
+    <t>Pull</t>
+  </si>
+  <si>
+    <t>leverage.pull@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -416,7 +416,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -426,62 +426,62 @@
   <sheetData>
     <row r="1" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>16</v>
@@ -492,13 +492,13 @@
     </row>
     <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
